--- a/src/test/resources/CRS-345 Test Cases.xlsx
+++ b/src/test/resources/CRS-345 Test Cases.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mdnas/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mdnas/eclipse-workspace/amfam.tdd/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58D5D280-4043-9540-8393-5E558DC9FB04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D5BFC5C-8E19-4746-B373-B429DA5183EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" activeTab="1" xr2:uid="{C524164C-EC73-A946-8410-C190C4756D55}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17360" activeTab="1" xr2:uid="{C524164C-EC73-A946-8410-C190C4756D55}"/>
   </bookViews>
   <sheets>
     <sheet name="CSR-345" sheetId="1" r:id="rId1"/>
-    <sheet name="Automation Steps" sheetId="2" r:id="rId2"/>
+    <sheet name="RTM" sheetId="3" r:id="rId2"/>
+    <sheet name="Automation Steps" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="91">
   <si>
     <t>Test No</t>
   </si>
@@ -261,6 +262,63 @@
   </si>
   <si>
     <t>Address Page</t>
+  </si>
+  <si>
+    <t>Test Case No</t>
+  </si>
+  <si>
+    <t>User Req No</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>CSR-345.1.3</t>
+  </si>
+  <si>
+    <t>CSR-345.1.1</t>
+  </si>
+  <si>
+    <t>CSR-345.1.2</t>
+  </si>
+  <si>
+    <t>CSR-345.1.4</t>
+  </si>
+  <si>
+    <t>CSR-345.2.1</t>
+  </si>
+  <si>
+    <t>CSR-345.2.2</t>
+  </si>
+  <si>
+    <t>CSR-345.PI1.I2.2.2</t>
+  </si>
+  <si>
+    <t>Nasir</t>
+  </si>
+  <si>
+    <t>Anik</t>
+  </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Defects</t>
+  </si>
+  <si>
+    <t>CSR-234</t>
+  </si>
+  <si>
+    <t>Will fix in PI1.I4</t>
+  </si>
+  <si>
+    <t>CSR-345.1.1, CSR-345.1.2</t>
   </si>
 </sst>
 </file>
@@ -711,8 +769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{075D54A5-C564-CE4F-9670-C6A420A2BB63}">
   <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="23.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -769,8 +827,8 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="68" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
-        <v>1</v>
+      <c r="A2" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>8</v>
@@ -810,8 +868,8 @@
       <c r="O2" s="2"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
-        <v>1.3</v>
+      <c r="A3" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>8</v>
@@ -837,8 +895,8 @@
       <c r="O3" s="2"/>
     </row>
     <row r="4" spans="1:15" ht="68" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>1.1000000000000001</v>
+      <c r="A4" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>8</v>
@@ -874,8 +932,8 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="68" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
-        <v>1.2</v>
+      <c r="A5" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>8</v>
@@ -911,8 +969,8 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
-        <v>2</v>
+      <c r="A6" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>9</v>
@@ -936,8 +994,8 @@
       <c r="O6" s="2"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
-        <v>3</v>
+      <c r="A7" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>10</v>
@@ -966,10 +1024,113 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAEC3CA4-1970-F144-9E21-02C078F82AA2}">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>2.34</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>2.56</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>1.54</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>8.81</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5D33BBA-D64B-9E44-81D1-6F2DC309618A}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
